--- a/Minerals data/6.3b. Annual_per_capita_income.xlsx
+++ b/Minerals data/6.3b. Annual_per_capita_income.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Sektion IV - Bereich\Bergbau\WMD\WMD 2022\Homepage\01 xlsx fertig zum hochladen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calista\Documents\FIT3179\3179-Data-Visualisation-2\Minerals data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3A8314-2D68-41F4-9641-7BA37F1AD22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" tabRatio="850"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="850" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Iron (Fe)" sheetId="195" r:id="rId1"/>
@@ -139,7 +140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -781,83 +782,83 @@
     </xf>
   </cellXfs>
   <cellStyles count="77">
-    <cellStyle name="20 % - Akzent1 2" xfId="2"/>
-    <cellStyle name="20 % - Akzent1 3" xfId="3"/>
-    <cellStyle name="20 % - Akzent1 4" xfId="4"/>
-    <cellStyle name="20 % - Akzent2 2" xfId="5"/>
-    <cellStyle name="20 % - Akzent2 3" xfId="6"/>
-    <cellStyle name="20 % - Akzent2 4" xfId="7"/>
-    <cellStyle name="20 % - Akzent3 2" xfId="8"/>
-    <cellStyle name="20 % - Akzent3 3" xfId="9"/>
-    <cellStyle name="20 % - Akzent3 4" xfId="10"/>
-    <cellStyle name="20 % - Akzent4 2" xfId="11"/>
-    <cellStyle name="20 % - Akzent4 3" xfId="12"/>
-    <cellStyle name="20 % - Akzent4 4" xfId="13"/>
-    <cellStyle name="20 % - Akzent5 2" xfId="14"/>
-    <cellStyle name="20 % - Akzent5 3" xfId="15"/>
-    <cellStyle name="20 % - Akzent5 4" xfId="16"/>
-    <cellStyle name="20 % - Akzent6 2" xfId="17"/>
-    <cellStyle name="20 % - Akzent6 3" xfId="18"/>
-    <cellStyle name="20 % - Akzent6 4" xfId="19"/>
-    <cellStyle name="40 % - Akzent1 2" xfId="20"/>
-    <cellStyle name="40 % - Akzent1 3" xfId="21"/>
-    <cellStyle name="40 % - Akzent1 4" xfId="22"/>
-    <cellStyle name="40 % - Akzent2 2" xfId="23"/>
-    <cellStyle name="40 % - Akzent2 3" xfId="24"/>
-    <cellStyle name="40 % - Akzent2 4" xfId="25"/>
-    <cellStyle name="40 % - Akzent3 2" xfId="26"/>
-    <cellStyle name="40 % - Akzent3 3" xfId="27"/>
-    <cellStyle name="40 % - Akzent3 4" xfId="28"/>
-    <cellStyle name="40 % - Akzent4 2" xfId="29"/>
-    <cellStyle name="40 % - Akzent4 3" xfId="30"/>
-    <cellStyle name="40 % - Akzent4 4" xfId="31"/>
-    <cellStyle name="40 % - Akzent5 2" xfId="32"/>
-    <cellStyle name="40 % - Akzent5 3" xfId="33"/>
-    <cellStyle name="40 % - Akzent5 4" xfId="34"/>
-    <cellStyle name="40 % - Akzent6 2" xfId="35"/>
-    <cellStyle name="40 % - Akzent6 3" xfId="36"/>
-    <cellStyle name="40 % - Akzent6 4" xfId="37"/>
-    <cellStyle name="60 % - Akzent1 2" xfId="38"/>
-    <cellStyle name="60 % - Akzent2 2" xfId="39"/>
-    <cellStyle name="60 % - Akzent3 2" xfId="40"/>
-    <cellStyle name="60 % - Akzent4 2" xfId="41"/>
-    <cellStyle name="60 % - Akzent5 2" xfId="42"/>
-    <cellStyle name="60 % - Akzent6 2" xfId="43"/>
-    <cellStyle name="Akzent1 2" xfId="44"/>
-    <cellStyle name="Akzent2 2" xfId="45"/>
-    <cellStyle name="Akzent3 2" xfId="46"/>
-    <cellStyle name="Akzent4 2" xfId="47"/>
-    <cellStyle name="Akzent5 2" xfId="48"/>
-    <cellStyle name="Akzent6 2" xfId="49"/>
-    <cellStyle name="Ausgabe 2" xfId="50"/>
-    <cellStyle name="Berechnung 2" xfId="51"/>
-    <cellStyle name="Eingabe 2" xfId="52"/>
-    <cellStyle name="Ergebnis 2" xfId="53"/>
-    <cellStyle name="Erklärender Text 2" xfId="54"/>
-    <cellStyle name="Gut 2" xfId="55"/>
-    <cellStyle name="Neutral 2" xfId="56"/>
-    <cellStyle name="Notiz 2" xfId="57"/>
-    <cellStyle name="Notiz 3" xfId="58"/>
-    <cellStyle name="Notiz 4" xfId="59"/>
-    <cellStyle name="Notiz 5" xfId="60"/>
-    <cellStyle name="Schlecht 2" xfId="61"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
-    <cellStyle name="Standard 3" xfId="62"/>
-    <cellStyle name="Standard 4" xfId="63"/>
-    <cellStyle name="Standard 5" xfId="64"/>
-    <cellStyle name="Standard 6" xfId="65"/>
-    <cellStyle name="Stil 1" xfId="66"/>
-    <cellStyle name="Tabelle 1Spalte" xfId="74"/>
-    <cellStyle name="Tabelle allgemein" xfId="75"/>
-    <cellStyle name="Tabelle Kopf" xfId="76"/>
-    <cellStyle name="Überschrift 1 2" xfId="67"/>
-    <cellStyle name="Überschrift 2 2" xfId="68"/>
-    <cellStyle name="Überschrift 3 2" xfId="69"/>
-    <cellStyle name="Überschrift 4 2" xfId="70"/>
-    <cellStyle name="Verknüpfte Zelle 2" xfId="71"/>
-    <cellStyle name="Warnender Text 2" xfId="72"/>
-    <cellStyle name="Zelle überprüfen 2" xfId="73"/>
+    <cellStyle name="20 % - Akzent1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20 % - Akzent1 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20 % - Akzent1 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20 % - Akzent2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20 % - Akzent2 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20 % - Akzent2 4" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20 % - Akzent3 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20 % - Akzent3 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20 % - Akzent3 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20 % - Akzent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20 % - Akzent4 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20 % - Akzent4 4" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20 % - Akzent5 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20 % - Akzent5 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20 % - Akzent5 4" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20 % - Akzent6 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20 % - Akzent6 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20 % - Akzent6 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40 % - Akzent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="40 % - Akzent1 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40 % - Akzent1 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="40 % - Akzent2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40 % - Akzent2 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="40 % - Akzent2 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40 % - Akzent3 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40 % - Akzent3 3" xfId="27" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="40 % - Akzent3 4" xfId="28" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="40 % - Akzent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="40 % - Akzent4 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="40 % - Akzent4 4" xfId="31" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="40 % - Akzent5 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40 % - Akzent5 3" xfId="33" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="40 % - Akzent5 4" xfId="34" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40 % - Akzent6 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40 % - Akzent6 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="40 % - Akzent6 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="60 % - Akzent1 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="60 % - Akzent2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="60 % - Akzent3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="60 % - Akzent4 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="60 % - Akzent5 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="60 % - Akzent6 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Akzent1 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Akzent2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Akzent3 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Akzent4 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Akzent5 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Akzent6 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Ausgabe 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Berechnung 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Eingabe 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Ergebnis 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Erklärender Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Gut 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Neutral 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notiz 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Notiz 3" xfId="58" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Notiz 4" xfId="59" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Notiz 5" xfId="60" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Schlecht 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Standard 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Standard 4" xfId="63" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Standard 5" xfId="64" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Standard 6" xfId="65" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Stil 1" xfId="66" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Tabelle 1Spalte" xfId="74" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Tabelle allgemein" xfId="75" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Tabelle Kopf" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Überschrift 1 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Überschrift 2 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Überschrift 3 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Überschrift 4 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Verknüpfte Zelle 2" xfId="71" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Warnender Text 2" xfId="72" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Zelle überprüfen 2" xfId="73" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
   </cellStyles>
   <dxfs count="588">
     <dxf>
@@ -7931,7 +7932,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="WMD" pivot="0" count="3">
+    <tableStyle name="WMD" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="587"/>
       <tableStyleElement type="headerRow" dxfId="586"/>
       <tableStyleElement type="secondRowStripe" dxfId="585"/>
@@ -7954,975 +7955,975 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tab2" displayName="Tab2_" ref="A2:G7" totalsRowShown="0" headerRowDxfId="584" dataDxfId="583" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tab2" displayName="Tab2_" ref="A2:G7" totalsRowShown="0" headerRowDxfId="584" dataDxfId="583" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="582" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="581" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="580" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="579" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="578" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="577" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="576" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Annual per capita income" dataDxfId="582" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="unit" dataDxfId="581" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2016" dataDxfId="580" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2017" dataDxfId="579" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2018" dataDxfId="578" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2019" dataDxfId="577" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2020" dataDxfId="576" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tab2" displayName="Tab2__9" ref="A2:G7" totalsRowShown="0" headerRowDxfId="503" dataDxfId="502" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tab2" displayName="Tab2__9" ref="A2:G7" totalsRowShown="0" headerRowDxfId="503" dataDxfId="502" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="501" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="500" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="499" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="498" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="497" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="496" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="495" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Annual per capita income" dataDxfId="501" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="unit" dataDxfId="500" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="2016" dataDxfId="499" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="2017" dataDxfId="498" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="2018" dataDxfId="497" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="2019" dataDxfId="496" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="2020" dataDxfId="495" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tab2" displayName="Tab2__10" ref="A2:G7" totalsRowShown="0" headerRowDxfId="494" dataDxfId="493" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tab2" displayName="Tab2__10" ref="A2:G7" totalsRowShown="0" headerRowDxfId="494" dataDxfId="493" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="492" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="491" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="490" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="489" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="488" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="487" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="486" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Annual per capita income" dataDxfId="492" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="unit" dataDxfId="491" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="2016" dataDxfId="490" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="2017" dataDxfId="489" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="2018" dataDxfId="488" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="2019" dataDxfId="487" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="2020" dataDxfId="486" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tab2" displayName="Tab2__11" ref="A2:G7" totalsRowShown="0" headerRowDxfId="485" dataDxfId="484" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Tab2" displayName="Tab2__11" ref="A2:G7" totalsRowShown="0" headerRowDxfId="485" dataDxfId="484" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="483" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="482" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="481" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="480" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="479" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="478" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="477" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Annual per capita income" dataDxfId="483" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="unit" dataDxfId="482" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="2016" dataDxfId="481" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="2017" dataDxfId="480" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="2018" dataDxfId="479" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="2019" dataDxfId="478" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="2020" dataDxfId="477" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tab2" displayName="Tab2__12" ref="A2:G7" totalsRowShown="0" headerRowDxfId="476" dataDxfId="475" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Tab2" displayName="Tab2__12" ref="A2:G7" totalsRowShown="0" headerRowDxfId="476" dataDxfId="475" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="474" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="473" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="472" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="471" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="470" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="469" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="468" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Annual per capita income" dataDxfId="474" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="unit" dataDxfId="473" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="2016" dataDxfId="472" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="2017" dataDxfId="471" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="2018" dataDxfId="470" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="2019" dataDxfId="469" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="2020" dataDxfId="468" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tab2" displayName="Tab2__13" ref="A2:G7" totalsRowShown="0" headerRowDxfId="467" dataDxfId="466" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Tab2" displayName="Tab2__13" ref="A2:G7" totalsRowShown="0" headerRowDxfId="467" dataDxfId="466" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="465" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="464" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="463" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="462" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="461" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="460" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="459" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Annual per capita income" dataDxfId="465" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="unit" dataDxfId="464" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="2016" dataDxfId="463" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="2017" dataDxfId="462" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="2018" dataDxfId="461" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="2019" dataDxfId="460" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="2020" dataDxfId="459" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tab2" displayName="Tab2__14" ref="A2:G7" totalsRowShown="0" headerRowDxfId="458" dataDxfId="457" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Tab2" displayName="Tab2__14" ref="A2:G7" totalsRowShown="0" headerRowDxfId="458" dataDxfId="457" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="456" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="455" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="454" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="453" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="452" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="451" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="450" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="Annual per capita income" dataDxfId="456" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="unit" dataDxfId="455" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="2016" dataDxfId="454" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="2017" dataDxfId="453" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="2018" dataDxfId="452" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="2019" dataDxfId="451" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0E00-000007000000}" name="2020" dataDxfId="450" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tab2__152" displayName="Tab2__152" ref="A2:G7" totalsRowShown="0" headerRowDxfId="449" dataDxfId="448" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="Tab2__152" displayName="Tab2__152" ref="A2:G7" totalsRowShown="0" headerRowDxfId="449" dataDxfId="448" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="447" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="446" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="445" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="444" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="443" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="442" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="441" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="Annual per capita income" dataDxfId="447" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="unit" dataDxfId="446" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="2016" dataDxfId="445" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="2017" dataDxfId="444" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="2018" dataDxfId="443" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="2019" dataDxfId="442" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="2020" dataDxfId="441" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tab2" displayName="Tab2__15" ref="A2:G7" totalsRowShown="0" headerRowDxfId="440" dataDxfId="439" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF10000000}" name="Tab2" displayName="Tab2__15" ref="A2:G7" totalsRowShown="0" headerRowDxfId="440" dataDxfId="439" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="438" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="437" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="436" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="435" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="434" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="433" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="432" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1000-000001000000}" name="Annual per capita income" dataDxfId="438" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1000-000002000000}" name="unit" dataDxfId="437" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1000-000003000000}" name="2016" dataDxfId="436" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1000-000004000000}" name="2017" dataDxfId="435" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1000-000005000000}" name="2018" dataDxfId="434" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1000-000006000000}" name="2019" dataDxfId="433" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1000-000007000000}" name="2020" dataDxfId="432" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tab2" displayName="Tab2__16" ref="A2:G7" totalsRowShown="0" headerRowDxfId="431" dataDxfId="430" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{00000000-000C-0000-FFFF-FFFF11000000}" name="Tab2" displayName="Tab2__16" ref="A2:G7" totalsRowShown="0" headerRowDxfId="431" dataDxfId="430" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="429" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="428" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="427" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="426" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="425" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="424" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="423" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1100-000001000000}" name="Annual per capita income" dataDxfId="429" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1100-000002000000}" name="unit" dataDxfId="428" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1100-000003000000}" name="2016" dataDxfId="427" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1100-000004000000}" name="2017" dataDxfId="426" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1100-000005000000}" name="2018" dataDxfId="425" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1100-000006000000}" name="2019" dataDxfId="424" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1100-000007000000}" name="2020" dataDxfId="423" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Tab2" displayName="Tab2__17" ref="A2:G7" totalsRowShown="0" headerRowDxfId="422" dataDxfId="421" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{00000000-000C-0000-FFFF-FFFF12000000}" name="Tab2" displayName="Tab2__17" ref="A2:G7" totalsRowShown="0" headerRowDxfId="422" dataDxfId="421" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="420" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="419" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="418" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="417" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="416" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="415" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="414" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1200-000001000000}" name="Annual per capita income" dataDxfId="420" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1200-000002000000}" name="unit" dataDxfId="419" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1200-000003000000}" name="2016" dataDxfId="418" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1200-000004000000}" name="2017" dataDxfId="417" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1200-000005000000}" name="2018" dataDxfId="416" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1200-000006000000}" name="2019" dataDxfId="415" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1200-000007000000}" name="2020" dataDxfId="414" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tab2" displayName="Tab2__1" ref="A2:G7" totalsRowShown="0" headerRowDxfId="575" dataDxfId="574" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tab2" displayName="Tab2__1" ref="A2:G7" totalsRowShown="0" headerRowDxfId="575" dataDxfId="574" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="573" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="572" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="571" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="570" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="569" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="568" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="567" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Annual per capita income" dataDxfId="573" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="unit" dataDxfId="572" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="2016" dataDxfId="571" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="2017" dataDxfId="570" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="2018" dataDxfId="569" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="2019" dataDxfId="568" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="2020" dataDxfId="567" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Tab2" displayName="Tab2__18" ref="A2:G7" totalsRowShown="0" headerRowDxfId="413" dataDxfId="412" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{00000000-000C-0000-FFFF-FFFF13000000}" name="Tab2" displayName="Tab2__18" ref="A2:G7" totalsRowShown="0" headerRowDxfId="413" dataDxfId="412" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="411" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="410" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="409" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="408" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="407" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="406" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="405" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1300-000001000000}" name="Annual per capita income" dataDxfId="411" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1300-000002000000}" name="unit" dataDxfId="410" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1300-000003000000}" name="2016" dataDxfId="409" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1300-000004000000}" name="2017" dataDxfId="408" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1300-000005000000}" name="2018" dataDxfId="407" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1300-000006000000}" name="2019" dataDxfId="406" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1300-000007000000}" name="2020" dataDxfId="405" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Tab2" displayName="Tab2__19" ref="A2:G7" totalsRowShown="0" headerRowDxfId="404" dataDxfId="403" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{00000000-000C-0000-FFFF-FFFF14000000}" name="Tab2" displayName="Tab2__19" ref="A2:G7" totalsRowShown="0" headerRowDxfId="404" dataDxfId="403" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="402" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="401" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="400" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="399" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="398" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="397" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="396" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1400-000001000000}" name="Annual per capita income" dataDxfId="402" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1400-000002000000}" name="unit" dataDxfId="401" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1400-000003000000}" name="2016" dataDxfId="400" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1400-000004000000}" name="2017" dataDxfId="399" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1400-000005000000}" name="2018" dataDxfId="398" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1400-000006000000}" name="2019" dataDxfId="397" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1400-000007000000}" name="2020" dataDxfId="396" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tab2__193" displayName="Tab2__193" ref="A2:G7" totalsRowShown="0" headerRowDxfId="395" dataDxfId="394" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF15000000}" name="Tab2__193" displayName="Tab2__193" ref="A2:G7" totalsRowShown="0" headerRowDxfId="395" dataDxfId="394" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="393" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="392" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="391" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="390" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="389" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="388" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="387" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1500-000001000000}" name="Annual per capita income" dataDxfId="393" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1500-000002000000}" name="unit" dataDxfId="392" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1500-000003000000}" name="2016" dataDxfId="391" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1500-000004000000}" name="2017" dataDxfId="390" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1500-000005000000}" name="2018" dataDxfId="389" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1500-000006000000}" name="2019" dataDxfId="388" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1500-000007000000}" name="2020" dataDxfId="387" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Tab2" displayName="Tab2__20" ref="A2:G7" totalsRowShown="0" headerRowDxfId="386" dataDxfId="385" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{00000000-000C-0000-FFFF-FFFF16000000}" name="Tab2" displayName="Tab2__20" ref="A2:G7" totalsRowShown="0" headerRowDxfId="386" dataDxfId="385" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="384" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="383" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="382" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="381" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="380" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="379" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="378" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1600-000001000000}" name="Annual per capita income" dataDxfId="384" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1600-000002000000}" name="unit" dataDxfId="383" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1600-000003000000}" name="2016" dataDxfId="382" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1600-000004000000}" name="2017" dataDxfId="381" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1600-000005000000}" name="2018" dataDxfId="380" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1600-000006000000}" name="2019" dataDxfId="379" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1600-000007000000}" name="2020" dataDxfId="378" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Tab2" displayName="Tab2__21" ref="A2:G7" totalsRowShown="0" headerRowDxfId="377" dataDxfId="376" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{00000000-000C-0000-FFFF-FFFF17000000}" name="Tab2" displayName="Tab2__21" ref="A2:G7" totalsRowShown="0" headerRowDxfId="377" dataDxfId="376" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="375" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="374" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="373" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="372" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="371" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="370" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="369" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1700-000001000000}" name="Annual per capita income" dataDxfId="375" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1700-000002000000}" name="unit" dataDxfId="374" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1700-000003000000}" name="2016" dataDxfId="373" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1700-000004000000}" name="2017" dataDxfId="372" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1700-000005000000}" name="2018" dataDxfId="371" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1700-000006000000}" name="2019" dataDxfId="370" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1700-000007000000}" name="2020" dataDxfId="369" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Tab2" displayName="Tab2__22" ref="A2:G7" totalsRowShown="0" headerRowDxfId="368" dataDxfId="367" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{00000000-000C-0000-FFFF-FFFF18000000}" name="Tab2" displayName="Tab2__22" ref="A2:G7" totalsRowShown="0" headerRowDxfId="368" dataDxfId="367" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="366" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="365" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="364" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="363" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="362" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="361" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="360" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1800-000001000000}" name="Annual per capita income" dataDxfId="366" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1800-000002000000}" name="unit" dataDxfId="365" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1800-000003000000}" name="2016" dataDxfId="364" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1800-000004000000}" name="2017" dataDxfId="363" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1800-000005000000}" name="2018" dataDxfId="362" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1800-000006000000}" name="2019" dataDxfId="361" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1800-000007000000}" name="2020" dataDxfId="360" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Tab2" displayName="Tab2__23" ref="A2:G7" totalsRowShown="0" headerRowDxfId="359" dataDxfId="358" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{00000000-000C-0000-FFFF-FFFF19000000}" name="Tab2" displayName="Tab2__23" ref="A2:G7" totalsRowShown="0" headerRowDxfId="359" dataDxfId="358" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="357" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="356" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="355" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="354" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="353" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="352" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="351" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1900-000001000000}" name="Annual per capita income" dataDxfId="357" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1900-000002000000}" name="unit" dataDxfId="356" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1900-000003000000}" name="2016" dataDxfId="355" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1900-000004000000}" name="2017" dataDxfId="354" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1900-000005000000}" name="2018" dataDxfId="353" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1900-000006000000}" name="2019" dataDxfId="352" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1900-000007000000}" name="2020" dataDxfId="351" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Tab2" displayName="Tab2__24" ref="A2:G7" totalsRowShown="0" headerRowDxfId="350" dataDxfId="349" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00000000-000C-0000-FFFF-FFFF1A000000}" name="Tab2" displayName="Tab2__24" ref="A2:G7" totalsRowShown="0" headerRowDxfId="350" dataDxfId="349" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="348" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="347" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="346" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="345" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="344" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="343" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="342" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1A00-000001000000}" name="Annual per capita income" dataDxfId="348" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1A00-000002000000}" name="unit" dataDxfId="347" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1A00-000003000000}" name="2016" dataDxfId="346" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1A00-000004000000}" name="2017" dataDxfId="345" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1A00-000005000000}" name="2018" dataDxfId="344" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1A00-000006000000}" name="2019" dataDxfId="343" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1A00-000007000000}" name="2020" dataDxfId="342" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Tab2" displayName="Tab2__25" ref="A2:G7" totalsRowShown="0" headerRowDxfId="341" dataDxfId="340" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{00000000-000C-0000-FFFF-FFFF1B000000}" name="Tab2" displayName="Tab2__25" ref="A2:G7" totalsRowShown="0" headerRowDxfId="341" dataDxfId="340" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="339" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="338" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="337" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="336" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="335" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="334" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="333" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1B00-000001000000}" name="Annual per capita income" dataDxfId="339" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1B00-000002000000}" name="unit" dataDxfId="338" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1B00-000003000000}" name="2016" dataDxfId="337" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1B00-000004000000}" name="2017" dataDxfId="336" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1B00-000005000000}" name="2018" dataDxfId="335" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1B00-000006000000}" name="2019" dataDxfId="334" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1B00-000007000000}" name="2020" dataDxfId="333" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Tab2" displayName="Tab2__26" ref="A2:G7" totalsRowShown="0" headerRowDxfId="332" dataDxfId="331" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{00000000-000C-0000-FFFF-FFFF1C000000}" name="Tab2" displayName="Tab2__26" ref="A2:G7" totalsRowShown="0" headerRowDxfId="332" dataDxfId="331" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="330" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="329" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="328" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="327" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="326" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="325" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="324" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1C00-000001000000}" name="Annual per capita income" dataDxfId="330" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1C00-000002000000}" name="unit" dataDxfId="329" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1C00-000003000000}" name="2016" dataDxfId="328" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1C00-000004000000}" name="2017" dataDxfId="327" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1C00-000005000000}" name="2018" dataDxfId="326" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1C00-000006000000}" name="2019" dataDxfId="325" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1C00-000007000000}" name="2020" dataDxfId="324" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tab2" displayName="Tab2__2" ref="A2:G7" totalsRowShown="0" headerRowDxfId="566" dataDxfId="565" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tab2" displayName="Tab2__2" ref="A2:G7" totalsRowShown="0" headerRowDxfId="566" dataDxfId="565" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="564" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="563" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="562" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="561" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="560" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="559" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="558" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Annual per capita income" dataDxfId="564" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="unit" dataDxfId="563" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="2016" dataDxfId="562" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="2017" dataDxfId="561" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="2018" dataDxfId="560" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="2019" dataDxfId="559" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="2020" dataDxfId="558" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Tab2" displayName="Tab2__27" ref="A2:G7" totalsRowShown="0" headerRowDxfId="323" dataDxfId="322" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{00000000-000C-0000-FFFF-FFFF1D000000}" name="Tab2" displayName="Tab2__27" ref="A2:G7" totalsRowShown="0" headerRowDxfId="323" dataDxfId="322" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="321" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="320" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="319" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="318" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="317" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="316" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="315" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1D00-000001000000}" name="Annual per capita income" dataDxfId="321" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1D00-000002000000}" name="unit" dataDxfId="320" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1D00-000003000000}" name="2016" dataDxfId="319" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1D00-000004000000}" name="2017" dataDxfId="318" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1D00-000005000000}" name="2018" dataDxfId="317" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1D00-000006000000}" name="2019" dataDxfId="316" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1D00-000007000000}" name="2020" dataDxfId="315" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Tab2" displayName="Tab2__28" ref="A2:G7" totalsRowShown="0" headerRowDxfId="314" dataDxfId="313" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{00000000-000C-0000-FFFF-FFFF1E000000}" name="Tab2" displayName="Tab2__28" ref="A2:G7" totalsRowShown="0" headerRowDxfId="314" dataDxfId="313" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="312" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="311" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="310" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="309" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="308" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="307" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="306" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1E00-000001000000}" name="Annual per capita income" dataDxfId="312" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1E00-000002000000}" name="unit" dataDxfId="311" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1E00-000003000000}" name="2016" dataDxfId="310" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1E00-000004000000}" name="2017" dataDxfId="309" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1E00-000005000000}" name="2018" dataDxfId="308" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1E00-000006000000}" name="2019" dataDxfId="307" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1E00-000007000000}" name="2020" dataDxfId="306" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Tab2" displayName="Tab2__29" ref="A2:G7" totalsRowShown="0" headerRowDxfId="305" dataDxfId="304" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{00000000-000C-0000-FFFF-FFFF1F000000}" name="Tab2" displayName="Tab2__29" ref="A2:G7" totalsRowShown="0" headerRowDxfId="305" dataDxfId="304" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="303" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="302" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="301" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="300" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="299" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="298" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="297" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-1F00-000001000000}" name="Annual per capita income" dataDxfId="303" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-1F00-000002000000}" name="unit" dataDxfId="302" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-1F00-000003000000}" name="2016" dataDxfId="301" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-1F00-000004000000}" name="2017" dataDxfId="300" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-1F00-000005000000}" name="2018" dataDxfId="299" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-1F00-000006000000}" name="2019" dataDxfId="298" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-1F00-000007000000}" name="2020" dataDxfId="297" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Tab2" displayName="Tab2__30" ref="A2:G7" totalsRowShown="0" headerRowDxfId="296" dataDxfId="295" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{00000000-000C-0000-FFFF-FFFF20000000}" name="Tab2" displayName="Tab2__30" ref="A2:G7" totalsRowShown="0" headerRowDxfId="296" dataDxfId="295" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="294" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="293" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="292" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="291" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="290" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="289" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="288" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2000-000001000000}" name="Annual per capita income" dataDxfId="294" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2000-000002000000}" name="unit" dataDxfId="293" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2000-000003000000}" name="2016" dataDxfId="292" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2000-000004000000}" name="2017" dataDxfId="291" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2000-000005000000}" name="2018" dataDxfId="290" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2000-000006000000}" name="2019" dataDxfId="289" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2000-000007000000}" name="2020" dataDxfId="288" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Tab2" displayName="Tab2__31" ref="A2:G7" totalsRowShown="0" headerRowDxfId="287" dataDxfId="286" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{00000000-000C-0000-FFFF-FFFF21000000}" name="Tab2" displayName="Tab2__31" ref="A2:G7" totalsRowShown="0" headerRowDxfId="287" dataDxfId="286" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="285" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="284" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="283" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="282" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="281" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="280" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="279" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2100-000001000000}" name="Annual per capita income" dataDxfId="285" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2100-000002000000}" name="unit" dataDxfId="284" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2100-000003000000}" name="2016" dataDxfId="283" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2100-000004000000}" name="2017" dataDxfId="282" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2100-000005000000}" name="2018" dataDxfId="281" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2100-000006000000}" name="2019" dataDxfId="280" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2100-000007000000}" name="2020" dataDxfId="279" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Tab2" displayName="Tab2__32" ref="A2:G7" totalsRowShown="0" headerRowDxfId="278" dataDxfId="277" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{00000000-000C-0000-FFFF-FFFF22000000}" name="Tab2" displayName="Tab2__32" ref="A2:G7" totalsRowShown="0" headerRowDxfId="278" dataDxfId="277" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="276" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="275" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="274" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="273" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="272" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="271" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="270" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2200-000001000000}" name="Annual per capita income" dataDxfId="276" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2200-000002000000}" name="unit" dataDxfId="275" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2200-000003000000}" name="2016" dataDxfId="274" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2200-000004000000}" name="2017" dataDxfId="273" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2200-000005000000}" name="2018" dataDxfId="272" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2200-000006000000}" name="2019" dataDxfId="271" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2200-000007000000}" name="2020" dataDxfId="270" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="36" name="Tab2" displayName="Tab2__33" ref="A2:G7" totalsRowShown="0" headerRowDxfId="269" dataDxfId="268" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{00000000-000C-0000-FFFF-FFFF23000000}" name="Tab2" displayName="Tab2__33" ref="A2:G7" totalsRowShown="0" headerRowDxfId="269" dataDxfId="268" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="267" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="266" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="265" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="264" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="263" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="262" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="261" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2300-000001000000}" name="Annual per capita income" dataDxfId="267" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2300-000002000000}" name="unit" dataDxfId="266" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2300-000003000000}" name="2016" dataDxfId="265" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2300-000004000000}" name="2017" dataDxfId="264" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2300-000005000000}" name="2018" dataDxfId="263" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2300-000006000000}" name="2019" dataDxfId="262" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2300-000007000000}" name="2020" dataDxfId="261" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Tab2" displayName="Tab2__34" ref="A2:G7" totalsRowShown="0" headerRowDxfId="260" dataDxfId="259" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{00000000-000C-0000-FFFF-FFFF24000000}" name="Tab2" displayName="Tab2__34" ref="A2:G7" totalsRowShown="0" headerRowDxfId="260" dataDxfId="259" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="258" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="257" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="256" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="255" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="254" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="253" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="252" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2400-000001000000}" name="Annual per capita income" dataDxfId="258" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2400-000002000000}" name="unit" dataDxfId="257" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2400-000003000000}" name="2016" dataDxfId="256" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2400-000004000000}" name="2017" dataDxfId="255" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2400-000005000000}" name="2018" dataDxfId="254" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2400-000006000000}" name="2019" dataDxfId="253" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2400-000007000000}" name="2020" dataDxfId="252" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="38" name="Tab2" displayName="Tab2__35" ref="A2:G7" totalsRowShown="0" headerRowDxfId="251" dataDxfId="250" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{00000000-000C-0000-FFFF-FFFF25000000}" name="Tab2" displayName="Tab2__35" ref="A2:G7" totalsRowShown="0" headerRowDxfId="251" dataDxfId="250" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="249" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="248" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="247" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="246" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="245" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="244" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="243" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2500-000001000000}" name="Annual per capita income" dataDxfId="249" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2500-000002000000}" name="unit" dataDxfId="248" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2500-000003000000}" name="2016" dataDxfId="247" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2500-000004000000}" name="2017" dataDxfId="246" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2500-000005000000}" name="2018" dataDxfId="245" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2500-000006000000}" name="2019" dataDxfId="244" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2500-000007000000}" name="2020" dataDxfId="243" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="39" name="Tab2" displayName="Tab2__36" ref="A2:G7" totalsRowShown="0" headerRowDxfId="242" dataDxfId="241" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{00000000-000C-0000-FFFF-FFFF26000000}" name="Tab2" displayName="Tab2__36" ref="A2:G7" totalsRowShown="0" headerRowDxfId="242" dataDxfId="241" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="240" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="239" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="238" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="237" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="236" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="235" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="234" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2600-000001000000}" name="Annual per capita income" dataDxfId="240" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2600-000002000000}" name="unit" dataDxfId="239" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2600-000003000000}" name="2016" dataDxfId="238" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2600-000004000000}" name="2017" dataDxfId="237" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2600-000005000000}" name="2018" dataDxfId="236" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2600-000006000000}" name="2019" dataDxfId="235" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2600-000007000000}" name="2020" dataDxfId="234" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tab2" displayName="Tab2__3" ref="A2:G7" totalsRowShown="0" headerRowDxfId="557" dataDxfId="556" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tab2" displayName="Tab2__3" ref="A2:G7" totalsRowShown="0" headerRowDxfId="557" dataDxfId="556" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="555" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="554" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="553" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="552" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="551" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="550" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="549" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Annual per capita income" dataDxfId="555" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="unit" dataDxfId="554" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="2016" dataDxfId="553" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="2017" dataDxfId="552" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="2018" dataDxfId="551" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="2019" dataDxfId="550" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="2020" dataDxfId="549" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="40" name="Tab2" displayName="Tab2__37" ref="A2:G7" totalsRowShown="0" headerRowDxfId="233" dataDxfId="232" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{00000000-000C-0000-FFFF-FFFF27000000}" name="Tab2" displayName="Tab2__37" ref="A2:G7" totalsRowShown="0" headerRowDxfId="233" dataDxfId="232" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="231" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="230" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="229" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="228" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="227" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="226" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="225" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2700-000001000000}" name="Annual per capita income" dataDxfId="231" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2700-000002000000}" name="unit" dataDxfId="230" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2700-000003000000}" name="2016" dataDxfId="229" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2700-000004000000}" name="2017" dataDxfId="228" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2700-000005000000}" name="2018" dataDxfId="227" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2700-000006000000}" name="2019" dataDxfId="226" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2700-000007000000}" name="2020" dataDxfId="225" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Tab2" displayName="Tab2__38" ref="A2:G7" totalsRowShown="0" headerRowDxfId="224" dataDxfId="223" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{00000000-000C-0000-FFFF-FFFF28000000}" name="Tab2" displayName="Tab2__38" ref="A2:G7" totalsRowShown="0" headerRowDxfId="224" dataDxfId="223" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="222" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="221" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="220" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="219" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="218" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="217" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="216" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2800-000001000000}" name="Annual per capita income" dataDxfId="222" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2800-000002000000}" name="unit" dataDxfId="221" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2800-000003000000}" name="2016" dataDxfId="220" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2800-000004000000}" name="2017" dataDxfId="219" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2800-000005000000}" name="2018" dataDxfId="218" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2800-000006000000}" name="2019" dataDxfId="217" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2800-000007000000}" name="2020" dataDxfId="216" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Tab2" displayName="Tab2__39" ref="A2:G7" totalsRowShown="0" headerRowDxfId="215" dataDxfId="214" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{00000000-000C-0000-FFFF-FFFF29000000}" name="Tab2" displayName="Tab2__39" ref="A2:G7" totalsRowShown="0" headerRowDxfId="215" dataDxfId="214" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="213" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="212" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="211" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="210" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="209" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="208" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="207" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2900-000001000000}" name="Annual per capita income" dataDxfId="213" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2900-000002000000}" name="unit" dataDxfId="212" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2900-000003000000}" name="2016" dataDxfId="211" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2900-000004000000}" name="2017" dataDxfId="210" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2900-000005000000}" name="2018" dataDxfId="209" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2900-000006000000}" name="2019" dataDxfId="208" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2900-000007000000}" name="2020" dataDxfId="207" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Tab2" displayName="Tab2__40" ref="A2:G7" totalsRowShown="0" headerRowDxfId="206" dataDxfId="205" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{00000000-000C-0000-FFFF-FFFF2A000000}" name="Tab2" displayName="Tab2__40" ref="A2:G7" totalsRowShown="0" headerRowDxfId="206" dataDxfId="205" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="204" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="203" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="202" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="201" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="200" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="199" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="198" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2A00-000001000000}" name="Annual per capita income" dataDxfId="204" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2A00-000002000000}" name="unit" dataDxfId="203" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2A00-000003000000}" name="2016" dataDxfId="202" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2A00-000004000000}" name="2017" dataDxfId="201" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2A00-000005000000}" name="2018" dataDxfId="200" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2A00-000006000000}" name="2019" dataDxfId="199" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2A00-000007000000}" name="2020" dataDxfId="198" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Tab2" displayName="Tab2__41" ref="A2:G7" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{00000000-000C-0000-FFFF-FFFF2B000000}" name="Tab2" displayName="Tab2__41" ref="A2:G7" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="195" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="194" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="193" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="192" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="191" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="190" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="189" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2B00-000001000000}" name="Annual per capita income" dataDxfId="195" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2B00-000002000000}" name="unit" dataDxfId="194" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2B00-000003000000}" name="2016" dataDxfId="193" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2B00-000004000000}" name="2017" dataDxfId="192" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2B00-000005000000}" name="2018" dataDxfId="191" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2B00-000006000000}" name="2019" dataDxfId="190" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2B00-000007000000}" name="2020" dataDxfId="189" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="45" name="Tab2" displayName="Tab2__42" ref="A2:G7" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{00000000-000C-0000-FFFF-FFFF2C000000}" name="Tab2" displayName="Tab2__42" ref="A2:G7" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="186" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="185" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="184" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="183" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="182" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="181" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="180" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2C00-000001000000}" name="Annual per capita income" dataDxfId="186" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2C00-000002000000}" name="unit" dataDxfId="185" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2C00-000003000000}" name="2016" dataDxfId="184" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2C00-000004000000}" name="2017" dataDxfId="183" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2C00-000005000000}" name="2018" dataDxfId="182" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2C00-000006000000}" name="2019" dataDxfId="181" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2C00-000007000000}" name="2020" dataDxfId="180" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table46.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Tab2" displayName="Tab2__43" ref="A2:G7" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="46" xr:uid="{00000000-000C-0000-FFFF-FFFF2D000000}" name="Tab2" displayName="Tab2__43" ref="A2:G7" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="177" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="176" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="175" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="174" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="173" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="172" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="171" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2D00-000001000000}" name="Annual per capita income" dataDxfId="177" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2D00-000002000000}" name="unit" dataDxfId="176" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2D00-000003000000}" name="2016" dataDxfId="175" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2D00-000004000000}" name="2017" dataDxfId="174" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2D00-000005000000}" name="2018" dataDxfId="173" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2D00-000006000000}" name="2019" dataDxfId="172" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2D00-000007000000}" name="2020" dataDxfId="171" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table47.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Tab2" displayName="Tab2__44" ref="A2:G7" totalsRowShown="0" headerRowDxfId="170" dataDxfId="169" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="47" xr:uid="{00000000-000C-0000-FFFF-FFFF2E000000}" name="Tab2" displayName="Tab2__44" ref="A2:G7" totalsRowShown="0" headerRowDxfId="170" dataDxfId="169" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="168" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="167" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="166" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="165" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="164" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="163" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="162" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2E00-000001000000}" name="Annual per capita income" dataDxfId="168" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2E00-000002000000}" name="unit" dataDxfId="167" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2E00-000003000000}" name="2016" dataDxfId="166" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2E00-000004000000}" name="2017" dataDxfId="165" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2E00-000005000000}" name="2018" dataDxfId="164" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2E00-000006000000}" name="2019" dataDxfId="163" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2E00-000007000000}" name="2020" dataDxfId="162" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table48.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Tab2" displayName="Tab2__45" ref="A2:G7" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="48" xr:uid="{00000000-000C-0000-FFFF-FFFF2F000000}" name="Tab2" displayName="Tab2__45" ref="A2:G7" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="159" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="158" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="157" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="156" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="155" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="154" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="153" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-2F00-000001000000}" name="Annual per capita income" dataDxfId="159" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-2F00-000002000000}" name="unit" dataDxfId="158" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-2F00-000003000000}" name="2016" dataDxfId="157" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-2F00-000004000000}" name="2017" dataDxfId="156" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-2F00-000005000000}" name="2018" dataDxfId="155" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-2F00-000006000000}" name="2019" dataDxfId="154" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-2F00-000007000000}" name="2020" dataDxfId="153" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table49.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Tab2" displayName="Tab2__46" ref="A2:G7" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="49" xr:uid="{00000000-000C-0000-FFFF-FFFF30000000}" name="Tab2" displayName="Tab2__46" ref="A2:G7" totalsRowShown="0" headerRowDxfId="152" dataDxfId="151" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="150" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="149" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="148" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="147" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="146" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="145" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="144" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3000-000001000000}" name="Annual per capita income" dataDxfId="150" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3000-000002000000}" name="unit" dataDxfId="149" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3000-000003000000}" name="2016" dataDxfId="148" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3000-000004000000}" name="2017" dataDxfId="147" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3000-000005000000}" name="2018" dataDxfId="146" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3000-000006000000}" name="2019" dataDxfId="145" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3000-000007000000}" name="2020" dataDxfId="144" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tab2" displayName="Tab2__4" ref="A2:G7" totalsRowShown="0" headerRowDxfId="548" dataDxfId="547" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tab2" displayName="Tab2__4" ref="A2:G7" totalsRowShown="0" headerRowDxfId="548" dataDxfId="547" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="546" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="545" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="544" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="543" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="542" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="541" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="540" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Annual per capita income" dataDxfId="546" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="unit" dataDxfId="545" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="2016" dataDxfId="544" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="2017" dataDxfId="543" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="2018" dataDxfId="542" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="2019" dataDxfId="541" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="2020" dataDxfId="540" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table50.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Tab2" displayName="Tab2__47" ref="A2:G7" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="50" xr:uid="{00000000-000C-0000-FFFF-FFFF31000000}" name="Tab2" displayName="Tab2__47" ref="A2:G7" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="141" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="140" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="139" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="138" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="137" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="136" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="135" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3100-000001000000}" name="Annual per capita income" dataDxfId="141" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3100-000002000000}" name="unit" dataDxfId="140" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3100-000003000000}" name="2016" dataDxfId="139" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3100-000004000000}" name="2017" dataDxfId="138" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3100-000005000000}" name="2018" dataDxfId="137" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3100-000006000000}" name="2019" dataDxfId="136" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3100-000007000000}" name="2020" dataDxfId="135" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table51.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Tab2" displayName="Tab2__48" ref="A2:G7" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="51" xr:uid="{00000000-000C-0000-FFFF-FFFF32000000}" name="Tab2" displayName="Tab2__48" ref="A2:G7" totalsRowShown="0" headerRowDxfId="134" dataDxfId="133" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="132" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="131" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="130" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="129" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="128" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="127" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="126" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3200-000001000000}" name="Annual per capita income" dataDxfId="132" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3200-000002000000}" name="unit" dataDxfId="131" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3200-000003000000}" name="2016" dataDxfId="130" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3200-000004000000}" name="2017" dataDxfId="129" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3200-000005000000}" name="2018" dataDxfId="128" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3200-000006000000}" name="2019" dataDxfId="127" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3200-000007000000}" name="2020" dataDxfId="126" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table52.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="52" name="Tab2" displayName="Tab2__49" ref="A2:G7" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="52" xr:uid="{00000000-000C-0000-FFFF-FFFF33000000}" name="Tab2" displayName="Tab2__49" ref="A2:G7" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="123" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="122" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="121" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="120" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="119" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="118" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="117" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3300-000001000000}" name="Annual per capita income" dataDxfId="123" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3300-000002000000}" name="unit" dataDxfId="122" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3300-000003000000}" name="2016" dataDxfId="121" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3300-000004000000}" name="2017" dataDxfId="120" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3300-000005000000}" name="2018" dataDxfId="119" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3300-000006000000}" name="2019" dataDxfId="118" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3300-000007000000}" name="2020" dataDxfId="117" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table53.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="53" name="Tab2" displayName="Tab2__50" ref="A2:G7" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="53" xr:uid="{00000000-000C-0000-FFFF-FFFF34000000}" name="Tab2" displayName="Tab2__50" ref="A2:G7" totalsRowShown="0" headerRowDxfId="116" dataDxfId="115" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="114" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="113" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="112" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="111" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="110" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="109" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="108" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3400-000001000000}" name="Annual per capita income" dataDxfId="114" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3400-000002000000}" name="unit" dataDxfId="113" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3400-000003000000}" name="2016" dataDxfId="112" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3400-000004000000}" name="2017" dataDxfId="111" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3400-000005000000}" name="2018" dataDxfId="110" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3400-000006000000}" name="2019" dataDxfId="109" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3400-000007000000}" name="2020" dataDxfId="108" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table54.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="54" name="Tab2" displayName="Tab2__51" ref="A2:G7" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="54" xr:uid="{00000000-000C-0000-FFFF-FFFF35000000}" name="Tab2" displayName="Tab2__51" ref="A2:G7" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="105" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="104" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="103" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="102" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="101" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="100" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="99" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3500-000001000000}" name="Annual per capita income" dataDxfId="105" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3500-000002000000}" name="unit" dataDxfId="104" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3500-000003000000}" name="2016" dataDxfId="103" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3500-000004000000}" name="2017" dataDxfId="102" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3500-000005000000}" name="2018" dataDxfId="101" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3500-000006000000}" name="2019" dataDxfId="100" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3500-000007000000}" name="2020" dataDxfId="99" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table55.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="55" name="Tab2" displayName="Tab2__52" ref="A2:G7" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="55" xr:uid="{00000000-000C-0000-FFFF-FFFF36000000}" name="Tab2" displayName="Tab2__52" ref="A2:G7" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="96" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="95" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="94" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="93" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="92" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="91" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="90" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3600-000001000000}" name="Annual per capita income" dataDxfId="96" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3600-000002000000}" name="unit" dataDxfId="95" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3600-000003000000}" name="2016" dataDxfId="94" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3600-000004000000}" name="2017" dataDxfId="93" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3600-000005000000}" name="2018" dataDxfId="92" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3600-000006000000}" name="2019" dataDxfId="91" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3600-000007000000}" name="2020" dataDxfId="90" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table56.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="56" name="Tab2" displayName="Tab2__53" ref="A2:G7" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="56" xr:uid="{00000000-000C-0000-FFFF-FFFF37000000}" name="Tab2" displayName="Tab2__53" ref="A2:G7" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="87" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="86" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="85" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="84" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="83" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="82" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="81" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3700-000001000000}" name="Annual per capita income" dataDxfId="87" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3700-000002000000}" name="unit" dataDxfId="86" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3700-000003000000}" name="2016" dataDxfId="85" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3700-000004000000}" name="2017" dataDxfId="84" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3700-000005000000}" name="2018" dataDxfId="83" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3700-000006000000}" name="2019" dataDxfId="82" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3700-000007000000}" name="2020" dataDxfId="81" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table57.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="57" name="Tab2" displayName="Tab2__54" ref="A2:G7" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="57" xr:uid="{00000000-000C-0000-FFFF-FFFF38000000}" name="Tab2" displayName="Tab2__54" ref="A2:G7" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="78" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="77" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="76" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="75" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="74" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="73" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="72" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3800-000001000000}" name="Annual per capita income" dataDxfId="78" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3800-000002000000}" name="unit" dataDxfId="77" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3800-000003000000}" name="2016" dataDxfId="76" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3800-000004000000}" name="2017" dataDxfId="75" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3800-000005000000}" name="2018" dataDxfId="74" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3800-000006000000}" name="2019" dataDxfId="73" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3800-000007000000}" name="2020" dataDxfId="72" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table58.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="58" name="Tab2" displayName="Tab2__55" ref="A2:G7" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="58" xr:uid="{00000000-000C-0000-FFFF-FFFF39000000}" name="Tab2" displayName="Tab2__55" ref="A2:G7" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="69" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="68" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="67" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="66" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="65" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="64" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="63" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3900-000001000000}" name="Annual per capita income" dataDxfId="69" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3900-000002000000}" name="unit" dataDxfId="68" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3900-000003000000}" name="2016" dataDxfId="67" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3900-000004000000}" name="2017" dataDxfId="66" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3900-000005000000}" name="2018" dataDxfId="65" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3900-000006000000}" name="2019" dataDxfId="64" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3900-000007000000}" name="2020" dataDxfId="63" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table59.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="59" name="Tab2" displayName="Tab2__56" ref="A2:G7" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="59" xr:uid="{00000000-000C-0000-FFFF-FFFF3A000000}" name="Tab2" displayName="Tab2__56" ref="A2:G7" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="60" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="59" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="58" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="57" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="56" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="55" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="54" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3A00-000001000000}" name="Annual per capita income" dataDxfId="60" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3A00-000002000000}" name="unit" dataDxfId="59" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3A00-000003000000}" name="2016" dataDxfId="58" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3A00-000004000000}" name="2017" dataDxfId="57" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3A00-000005000000}" name="2018" dataDxfId="56" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3A00-000006000000}" name="2019" dataDxfId="55" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3A00-000007000000}" name="2020" dataDxfId="54" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tab2" displayName="Tab2__5" ref="A2:G7" totalsRowShown="0" headerRowDxfId="539" dataDxfId="538" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tab2" displayName="Tab2__5" ref="A2:G7" totalsRowShown="0" headerRowDxfId="539" dataDxfId="538" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="537" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="536" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="535" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="534" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="533" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="532" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="531" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Annual per capita income" dataDxfId="537" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="unit" dataDxfId="536" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="2016" dataDxfId="535" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="2017" dataDxfId="534" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="2018" dataDxfId="533" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="2019" dataDxfId="532" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="2020" dataDxfId="531" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table60.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="60" name="Tab2" displayName="Tab2__57" ref="A2:G7" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="60" xr:uid="{00000000-000C-0000-FFFF-FFFF3B000000}" name="Tab2" displayName="Tab2__57" ref="A2:G7" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="51" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="50" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="49" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="48" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="47" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="46" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="45" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3B00-000001000000}" name="Annual per capita income" dataDxfId="51" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3B00-000002000000}" name="unit" dataDxfId="50" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3B00-000003000000}" name="2016" dataDxfId="49" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3B00-000004000000}" name="2017" dataDxfId="48" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3B00-000005000000}" name="2018" dataDxfId="47" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3B00-000006000000}" name="2019" dataDxfId="46" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3B00-000007000000}" name="2020" dataDxfId="45" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table61.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="61" name="Tab2" displayName="Tab2__58" ref="A2:G7" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="61" xr:uid="{00000000-000C-0000-FFFF-FFFF3C000000}" name="Tab2" displayName="Tab2__58" ref="A2:G7" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="42" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="41" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="40" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="39" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="38" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="37" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="36" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3C00-000001000000}" name="Annual per capita income" dataDxfId="42" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3C00-000002000000}" name="unit" dataDxfId="41" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3C00-000003000000}" name="2016" dataDxfId="40" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3C00-000004000000}" name="2017" dataDxfId="39" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3C00-000005000000}" name="2018" dataDxfId="38" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3C00-000006000000}" name="2019" dataDxfId="37" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3C00-000007000000}" name="2020" dataDxfId="36" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table62.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="64" name="Tab2" displayName="Tab2__61" ref="A2:G7" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="64" xr:uid="{00000000-000C-0000-FFFF-FFFF3D000000}" name="Tab2" displayName="Tab2__61" ref="A2:G7" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="33" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="32" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="31" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="30" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="29" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="28" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="27" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3D00-000001000000}" name="Annual per capita income" dataDxfId="33" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3D00-000002000000}" name="unit" dataDxfId="32" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3D00-000003000000}" name="2016" dataDxfId="31" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3D00-000004000000}" name="2017" dataDxfId="30" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3D00-000005000000}" name="2018" dataDxfId="29" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3D00-000006000000}" name="2019" dataDxfId="28" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3D00-000007000000}" name="2020" dataDxfId="27" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table63.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="62" name="Tab2" displayName="Tab2__59" ref="A2:G7" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="62" xr:uid="{00000000-000C-0000-FFFF-FFFF3E000000}" name="Tab2" displayName="Tab2__59" ref="A2:G7" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="24" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="23" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="22" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="21" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="20" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="19" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="18" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3E00-000001000000}" name="Annual per capita income" dataDxfId="24" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3E00-000002000000}" name="unit" dataDxfId="23" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3E00-000003000000}" name="2016" dataDxfId="22" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3E00-000004000000}" name="2017" dataDxfId="21" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3E00-000005000000}" name="2018" dataDxfId="20" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3E00-000006000000}" name="2019" dataDxfId="19" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3E00-000007000000}" name="2020" dataDxfId="18" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table64.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="63" name="Tab2" displayName="Tab2__60" ref="A2:G7" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="63" xr:uid="{00000000-000C-0000-FFFF-FFFF3F000000}" name="Tab2" displayName="Tab2__60" ref="A2:G7" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="15" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="14" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="13" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="12" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="11" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="10" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="9" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-3F00-000001000000}" name="Annual per capita income" dataDxfId="15" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-3F00-000002000000}" name="unit" dataDxfId="14" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-3F00-000003000000}" name="2016" dataDxfId="13" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-3F00-000004000000}" name="2017" dataDxfId="12" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-3F00-000005000000}" name="2018" dataDxfId="11" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-3F00-000006000000}" name="2019" dataDxfId="10" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-3F00-000007000000}" name="2020" dataDxfId="9" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table65.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="65" name="Tab2" displayName="Tab2__62" ref="A2:G7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="65" xr:uid="{00000000-000C-0000-FFFF-FFFF40000000}" name="Tab2" displayName="Tab2__62" ref="A2:G7" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="6" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="5" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="4" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="3" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="2" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="1" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="0" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-4000-000001000000}" name="Annual per capita income" dataDxfId="6" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-4000-000002000000}" name="unit" dataDxfId="5" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-4000-000003000000}" name="2016" dataDxfId="4" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-4000-000004000000}" name="2017" dataDxfId="3" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-4000-000005000000}" name="2018" dataDxfId="2" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-4000-000006000000}" name="2019" dataDxfId="1" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-4000-000007000000}" name="2020" dataDxfId="0" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tab2" displayName="Tab2__6" ref="A2:G7" totalsRowShown="0" headerRowDxfId="530" dataDxfId="529" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tab2" displayName="Tab2__6" ref="A2:G7" totalsRowShown="0" headerRowDxfId="530" dataDxfId="529" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="528" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="527" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="526" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="525" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="524" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="523" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="522" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Annual per capita income" dataDxfId="528" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="unit" dataDxfId="527" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="2016" dataDxfId="526" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="2017" dataDxfId="525" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="2018" dataDxfId="524" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="2019" dataDxfId="523" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="2020" dataDxfId="522" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Tab2" displayName="Tab2__7" ref="A2:G7" totalsRowShown="0" headerRowDxfId="521" dataDxfId="520" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tab2" displayName="Tab2__7" ref="A2:G7" totalsRowShown="0" headerRowDxfId="521" dataDxfId="520" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="519" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="518" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="517" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="516" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="515" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="514" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="513" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Annual per capita income" dataDxfId="519" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="unit" dataDxfId="518" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="2016" dataDxfId="517" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="2017" dataDxfId="516" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="2018" dataDxfId="515" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="2019" dataDxfId="514" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="2020" dataDxfId="513" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Tab2" displayName="Tab2__8" ref="A2:G7" totalsRowShown="0" headerRowDxfId="512" dataDxfId="511" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tab2" displayName="Tab2__8" ref="A2:G7" totalsRowShown="0" headerRowDxfId="512" dataDxfId="511" headerRowCellStyle="Tabelle Kopf" dataCellStyle="Tabelle allgemein">
   <tableColumns count="7">
-    <tableColumn id="1" name="Annual per capita income" dataDxfId="510" dataCellStyle="Tabelle 1Spalte"/>
-    <tableColumn id="2" name="unit" dataDxfId="509" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="3" name="2016" dataDxfId="508" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="4" name="2017" dataDxfId="507" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="5" name="2018" dataDxfId="506" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="6" name="2019" dataDxfId="505" dataCellStyle="Tabelle allgemein"/>
-    <tableColumn id="7" name="2020" dataDxfId="504" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Annual per capita income" dataDxfId="510" dataCellStyle="Tabelle 1Spalte"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="unit" dataDxfId="509" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="2016" dataDxfId="508" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="2017" dataDxfId="507" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="2018" dataDxfId="506" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="2019" dataDxfId="505" dataCellStyle="Tabelle allgemein"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="2020" dataDxfId="504" dataCellStyle="Tabelle allgemein"/>
   </tableColumns>
   <tableStyleInfo name="WMD" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9214,25 +9215,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle195">
     <tabColor indexed="10"/>
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -9243,7 +9244,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -9266,7 +9267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -9289,7 +9290,7 @@
         <v>659459050</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -9312,7 +9313,7 @@
         <v>626727977</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -9335,7 +9336,7 @@
         <v>231384620</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -9358,7 +9359,7 @@
         <v>4987210</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -9391,7 +9392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Tabelle204">
     <tabColor indexed="10"/>
   </sheetPr>
@@ -9401,15 +9402,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -9420,7 +9421,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -9443,7 +9444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -9466,7 +9467,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -9489,7 +9490,7 @@
         <v>74184</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -9512,7 +9513,7 @@
         <v>9596</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -9535,7 +9536,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -9567,7 +9568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Tabelle205">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -9577,15 +9578,15 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -9596,7 +9597,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -9619,7 +9620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -9642,7 +9643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -9665,7 +9666,7 @@
         <v>105659</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -9688,7 +9689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -9711,7 +9712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -9743,7 +9744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Tabelle206">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -9753,15 +9754,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -9772,7 +9773,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -9818,7 +9819,7 @@
         <v>15685036</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>44394540</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -9864,7 +9865,7 @@
         <v>4700867</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -9887,7 +9888,7 @@
         <v>571125</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -9919,7 +9920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Tabelle207">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -9929,15 +9930,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -9948,7 +9949,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -9971,7 +9972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -10017,7 +10018,7 @@
         <v>81283</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -10040,7 +10041,7 @@
         <v>42728</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -10063,7 +10064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -10095,7 +10096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Tabelle208">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -10105,15 +10106,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -10124,7 +10125,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -10147,7 +10148,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -10193,7 +10194,7 @@
         <v>43114</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -10216,7 +10217,7 @@
         <v>7744</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -10239,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -10271,7 +10272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Tabelle209">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -10281,15 +10282,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -10300,7 +10301,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -10323,7 +10324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -10346,7 +10347,7 @@
         <v>110452966</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -10369,7 +10370,7 @@
         <v>126169708</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -10392,7 +10393,7 @@
         <v>53284198</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>89114829</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -10447,7 +10448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor indexed="17"/>
   </sheetPr>
@@ -10457,16 +10458,16 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -10477,7 +10478,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -10500,7 +10501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -10523,7 +10524,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -10546,7 +10547,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -10569,7 +10570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -10592,7 +10593,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -10624,7 +10625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Tabelle210">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -10634,16 +10635,16 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -10654,7 +10655,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -10700,7 +10701,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -10723,7 +10724,7 @@
         <v>7889</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -10746,7 +10747,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -10769,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -10801,7 +10802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Tabelle211">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -10811,15 +10812,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -10830,7 +10831,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -10876,7 +10877,7 @@
         <v>9984</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -10899,7 +10900,7 @@
         <v>14386</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -10922,7 +10923,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -10945,7 +10946,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -10977,7 +10978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Tabelle212">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -10987,15 +10988,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -11006,7 +11007,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -11029,7 +11030,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -11052,7 +11053,7 @@
         <v>9119210</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -11075,7 +11076,7 @@
         <v>7188007</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>2744457</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -11121,7 +11122,7 @@
         <v>1736689</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -11153,25 +11154,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Tabelle196">
     <tabColor indexed="10"/>
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -11184,7 +11185,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -11207,7 +11208,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -11230,7 +11231,7 @@
         <v>645710</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -11253,7 +11254,7 @@
         <v>9180162</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -11276,7 +11277,7 @@
         <v>2126510</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -11299,7 +11300,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -11332,7 +11333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Tabelle213">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -11342,15 +11343,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -11361,7 +11362,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -11384,7 +11385,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -11407,7 +11408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -11430,7 +11431,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -11453,7 +11454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -11476,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -11508,7 +11509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Tabelle214">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -11518,15 +11519,15 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -11537,7 +11538,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -11560,7 +11561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -11583,7 +11584,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -11606,7 +11607,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -11629,7 +11630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -11652,7 +11653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -11684,7 +11685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor indexed="17"/>
   </sheetPr>
@@ -11694,15 +11695,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -11713,7 +11714,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -11736,7 +11737,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -11759,7 +11760,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -11782,7 +11783,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -11805,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -11828,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -11860,7 +11861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Tabelle215">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -11870,15 +11871,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -11889,7 +11890,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -11912,7 +11913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -11935,7 +11936,7 @@
         <v>994979</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -11958,7 +11959,7 @@
         <v>3171911</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -11981,7 +11982,7 @@
         <v>555093</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -12004,7 +12005,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -12036,7 +12037,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Tabelle216">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -12046,15 +12047,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -12065,7 +12066,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -12088,7 +12089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -12111,7 +12112,7 @@
         <v>139780</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -12134,7 +12135,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -12157,7 +12158,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -12180,7 +12181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -12212,7 +12213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Tabelle217">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -12222,15 +12223,15 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -12241,7 +12242,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -12264,7 +12265,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -12287,7 +12288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -12310,7 +12311,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -12333,7 +12334,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -12356,7 +12357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -12388,7 +12389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Tabelle218">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -12398,15 +12399,15 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -12417,7 +12418,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -12440,7 +12441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -12463,7 +12464,7 @@
         <v>58440</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -12486,7 +12487,7 @@
         <v>143441</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -12509,7 +12510,7 @@
         <v>23100</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -12532,7 +12533,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -12564,7 +12565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Tabelle219">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -12574,15 +12575,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.25" style="7" customWidth="1"/>
-    <col min="3" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26953125" style="7" customWidth="1"/>
+    <col min="3" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -12593,7 +12594,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -12616,7 +12617,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -12639,7 +12640,7 @@
         <v>29959</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -12662,7 +12663,7 @@
         <v>5760</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -12685,7 +12686,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -12708,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -12740,7 +12741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Tabelle220">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -12750,15 +12751,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -12769,7 +12770,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -12792,7 +12793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -12815,7 +12816,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -12838,7 +12839,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -12861,7 +12862,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -12884,7 +12885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -12916,7 +12917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr codeName="Tabelle221">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -12926,15 +12927,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -12945,7 +12946,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -12991,7 +12992,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -13014,7 +13015,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -13037,7 +13038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -13060,7 +13061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -13092,7 +13093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Tabelle197">
     <tabColor indexed="10"/>
   </sheetPr>
@@ -13102,15 +13103,15 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -13121,7 +13122,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -13144,7 +13145,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -13167,7 +13168,7 @@
         <v>13679</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -13190,7 +13191,7 @@
         <v>17247</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -13213,7 +13214,7 @@
         <v>10630</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -13236,7 +13237,7 @@
         <v>87554</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -13268,7 +13269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Tabelle222">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -13278,15 +13279,15 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -13297,7 +13298,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -13320,7 +13321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -13343,7 +13344,7 @@
         <v>8318</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -13366,7 +13367,7 @@
         <v>137970</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -13389,7 +13390,7 @@
         <v>114182</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -13412,7 +13413,7 @@
         <v>16821</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -13444,7 +13445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Tabelle223">
     <tabColor indexed="17"/>
   </sheetPr>
@@ -13454,15 +13455,15 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -13473,7 +13474,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -13496,7 +13497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -13519,7 +13520,7 @@
         <v>3071496</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -13542,7 +13543,7 @@
         <v>7667363</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -13565,7 +13566,7 @@
         <v>1628215</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -13588,7 +13589,7 @@
         <v>241225</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -13620,7 +13621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr codeName="Tabelle224">
     <tabColor indexed="28"/>
   </sheetPr>
@@ -13630,15 +13631,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="3" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -13649,7 +13650,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -13672,7 +13673,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -13695,7 +13696,7 @@
         <v>786415</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -13718,7 +13719,7 @@
         <v>1466959</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -13741,7 +13742,7 @@
         <v>631221</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -13764,7 +13765,7 @@
         <v>328208</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -13796,7 +13797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr codeName="Tabelle225">
     <tabColor indexed="28"/>
   </sheetPr>
@@ -13806,15 +13807,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="3" max="7" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -13825,7 +13826,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -13848,7 +13849,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -13871,7 +13872,7 @@
         <v>37267</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -13894,7 +13895,7 @@
         <v>149654</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -13917,7 +13918,7 @@
         <v>12981</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -13940,7 +13941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -13972,7 +13973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr codeName="Tabelle226">
     <tabColor indexed="28"/>
   </sheetPr>
@@ -13982,15 +13983,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="3" max="7" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -14001,7 +14002,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -14024,7 +14025,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -14047,7 +14048,7 @@
         <v>13946</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -14070,7 +14071,7 @@
         <v>136669</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -14093,7 +14094,7 @@
         <v>15004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -14116,7 +14117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -14148,7 +14149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr codeName="Tabelle227">
     <tabColor indexed="28"/>
   </sheetPr>
@@ -14158,15 +14159,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="3" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -14177,7 +14178,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -14200,7 +14201,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -14223,7 +14224,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -14246,7 +14247,7 @@
         <v>18772</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -14269,7 +14270,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -14292,7 +14293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -14324,7 +14325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr codeName="Tabelle228">
     <tabColor indexed="28"/>
   </sheetPr>
@@ -14334,15 +14335,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -14353,7 +14354,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -14376,7 +14377,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -14399,7 +14400,7 @@
         <v>6157348</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -14422,7 +14423,7 @@
         <v>17184280</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -14445,7 +14446,7 @@
         <v>2772445</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -14468,7 +14469,7 @@
         <v>133816</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -14500,7 +14501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr codeName="Tabelle229">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -14510,15 +14511,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -14529,7 +14530,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -14552,7 +14553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -14575,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -14598,7 +14599,7 @@
         <v>1174457</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -14621,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -14644,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -14676,7 +14677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <sheetPr codeName="Tabelle230">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -14686,17 +14687,17 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -14707,7 +14708,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -14730,7 +14731,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -14753,7 +14754,7 @@
         <v>242065</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -14776,7 +14777,7 @@
         <v>4048996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -14799,7 +14800,7 @@
         <v>3790509</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -14822,7 +14823,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -14854,7 +14855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr codeName="Tabelle231">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -14864,15 +14865,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -14883,7 +14884,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -14906,7 +14907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -14929,7 +14930,7 @@
         <v>7081354</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -14952,7 +14953,7 @@
         <v>9056784</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -14975,7 +14976,7 @@
         <v>4628491</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -14998,7 +14999,7 @@
         <v>80189</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -15030,7 +15031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle198">
     <tabColor indexed="10"/>
   </sheetPr>
@@ -15040,15 +15041,15 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -15059,7 +15060,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -15082,7 +15083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -15105,7 +15106,7 @@
         <v>3358210</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -15128,7 +15129,7 @@
         <v>12462696</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -15151,7 +15152,7 @@
         <v>3454720</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -15174,7 +15175,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -15206,7 +15207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr codeName="Tabelle232">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -15216,15 +15217,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -15235,7 +15236,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -15258,7 +15259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -15281,7 +15282,7 @@
         <v>1118103</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -15304,7 +15305,7 @@
         <v>2223749</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -15327,7 +15328,7 @@
         <v>259514</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -15350,7 +15351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -15382,7 +15383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr codeName="Tabelle233">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -15392,15 +15393,15 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -15411,7 +15412,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -15434,7 +15435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -15457,7 +15458,7 @@
         <v>15235311</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -15480,7 +15481,7 @@
         <v>35405721</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -15503,7 +15504,7 @@
         <v>8130545</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -15526,7 +15527,7 @@
         <v>3241592</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -15558,7 +15559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr codeName="Tabelle234">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -15568,17 +15569,17 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="3" max="3" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -15589,7 +15590,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -15612,7 +15613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -15635,7 +15636,7 @@
         <v>9780400</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -15658,7 +15659,7 @@
         <v>22801660</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -15681,7 +15682,7 @@
         <v>2959445</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -15704,7 +15705,7 @@
         <v>10622265</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -15736,7 +15737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr codeName="Tabelle235">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -15746,15 +15747,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -15765,7 +15766,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -15788,7 +15789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -15811,7 +15812,7 @@
         <v>1277049</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -15834,7 +15835,7 @@
         <v>938987</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -15857,7 +15858,7 @@
         <v>4138</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -15880,7 +15881,7 @@
         <v>40257</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -15912,7 +15913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr codeName="Tabelle236">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -15922,15 +15923,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -15941,7 +15942,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -15964,7 +15965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -15987,7 +15988,7 @@
         <v>5572751</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -16010,7 +16011,7 @@
         <v>15833833</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -16033,7 +16034,7 @@
         <v>9470130</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -16056,7 +16057,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -16088,7 +16089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr codeName="Tabelle237">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -16098,15 +16099,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -16117,7 +16118,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -16140,7 +16141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -16163,7 +16164,7 @@
         <v>271933</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -16186,7 +16187,7 @@
         <v>6215702</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -16209,7 +16210,7 @@
         <v>1071462</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -16232,7 +16233,7 @@
         <v>16900</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -16264,7 +16265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr codeName="Tabelle238">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -16274,15 +16275,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -16293,7 +16294,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -16316,7 +16317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -16339,7 +16340,7 @@
         <v>20746</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -16362,7 +16363,7 @@
         <v>762158</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -16385,7 +16386,7 @@
         <v>46368</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -16408,7 +16409,7 @@
         <v>111214</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -16440,7 +16441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <sheetPr codeName="Tabelle239">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -16450,15 +16451,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -16469,7 +16470,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -16492,7 +16493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -16515,7 +16516,7 @@
         <v>69472108</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -16538,7 +16539,7 @@
         <v>63961688</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -16561,7 +16562,7 @@
         <v>27924070</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -16584,7 +16585,7 @@
         <v>551049</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -16616,7 +16617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr codeName="Tabelle240">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -16626,15 +16627,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -16645,7 +16646,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -16668,7 +16669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -16691,7 +16692,7 @@
         <v>15615652</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -16714,7 +16715,7 @@
         <v>12629328</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -16737,7 +16738,7 @@
         <v>14219513</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -16760,7 +16761,7 @@
         <v>21023</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -16792,7 +16793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <sheetPr codeName="Tabelle241">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -16802,15 +16803,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -16821,7 +16822,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -16844,7 +16845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -16867,7 +16868,7 @@
         <v>4418542</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -16890,7 +16891,7 @@
         <v>23411357</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -16913,7 +16914,7 @@
         <v>350433</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -16936,7 +16937,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -16968,7 +16969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Tabelle199">
     <tabColor indexed="10"/>
   </sheetPr>
@@ -16978,15 +16979,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -16997,7 +16998,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -17020,7 +17021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -17043,7 +17044,7 @@
         <v>113564</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -17066,7 +17067,7 @@
         <v>162732</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -17089,7 +17090,7 @@
         <v>7186</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -17112,7 +17113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -17144,7 +17145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr codeName="Tabelle242">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -17154,15 +17155,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -17173,7 +17174,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -17196,7 +17197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -17219,7 +17220,7 @@
         <v>1647035</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -17242,7 +17243,7 @@
         <v>1314751</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -17265,7 +17266,7 @@
         <v>52750</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -17288,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -17320,7 +17321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr codeName="Tabelle243">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -17330,15 +17331,15 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -17349,7 +17350,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -17372,7 +17373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -17395,7 +17396,7 @@
         <v>10632440</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -17418,7 +17419,7 @@
         <v>41557070</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -17441,7 +17442,7 @@
         <v>16806480</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -17464,7 +17465,7 @@
         <v>1068900</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -17496,7 +17497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr codeName="Tabelle244">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -17506,15 +17507,15 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -17525,7 +17526,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -17548,7 +17549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -17571,7 +17572,7 @@
         <v>21152231</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -17594,7 +17595,7 @@
         <v>23150253</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -17617,7 +17618,7 @@
         <v>693900</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -17640,7 +17641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -17672,7 +17673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr codeName="Tabelle245">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -17682,15 +17683,15 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -17701,7 +17702,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -17724,7 +17725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -17747,7 +17748,7 @@
         <v>120441469</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -17770,7 +17771,7 @@
         <v>102243386</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -17793,7 +17794,7 @@
         <v>45802843</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -17816,7 +17817,7 @@
         <v>1465627</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -17848,7 +17849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr codeName="Tabelle246">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -17858,15 +17859,15 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -17877,7 +17878,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -17900,7 +17901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -17923,7 +17924,7 @@
         <v>39576725</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -17946,7 +17947,7 @@
         <v>29834064</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -17969,7 +17970,7 @@
         <v>8556748</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -17992,7 +17993,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -18024,7 +18025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr codeName="Tabelle247">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -18034,15 +18035,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -18053,7 +18054,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -18076,7 +18077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -18099,7 +18100,7 @@
         <v>2520259</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -18122,7 +18123,7 @@
         <v>3100015</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -18145,7 +18146,7 @@
         <v>1993769</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -18168,7 +18169,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -18200,7 +18201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr codeName="Tabelle248">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -18210,15 +18211,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -18229,7 +18230,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -18252,7 +18253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -18275,7 +18276,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -18298,7 +18299,7 @@
         <v>274820</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -18321,7 +18322,7 @@
         <v>27648</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -18344,7 +18345,7 @@
         <v>14170</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -18376,7 +18377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr codeName="Tabelle249">
     <tabColor indexed="18"/>
   </sheetPr>
@@ -18386,15 +18387,15 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -18405,7 +18406,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -18428,7 +18429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -18451,7 +18452,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -18474,7 +18475,7 @@
         <v>469244</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -18497,7 +18498,7 @@
         <v>222498</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -18520,7 +18521,7 @@
         <v>133890</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -18552,7 +18553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr codeName="Tabelle250">
     <tabColor indexed="13"/>
   </sheetPr>
@@ -18562,15 +18563,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -18581,7 +18582,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -18604,7 +18605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -18627,7 +18628,7 @@
         <v>722158240</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -18650,7 +18651,7 @@
         <v>3649525253</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -18673,7 +18674,7 @@
         <v>1333924178</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -18696,7 +18697,7 @@
         <v>20728961</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -18728,7 +18729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr codeName="Tabelle251">
     <tabColor indexed="13"/>
   </sheetPr>
@@ -18738,15 +18739,15 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -18757,7 +18758,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -18780,7 +18781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -18803,7 +18804,7 @@
         <v>275296637</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -18826,7 +18827,7 @@
         <v>664129344</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -18849,7 +18850,7 @@
         <v>87932391</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -18872,7 +18873,7 @@
         <v>4670626</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -18904,7 +18905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Tabelle200">
     <tabColor indexed="10"/>
   </sheetPr>
@@ -18914,15 +18915,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -18933,7 +18934,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -18956,7 +18957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -18979,7 +18980,7 @@
         <v>603063</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -19002,7 +19003,7 @@
         <v>634528</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -19025,7 +19026,7 @@
         <v>1243141</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -19048,7 +19049,7 @@
         <v>11134</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -19080,7 +19081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr codeName="Tabelle252">
     <tabColor indexed="13"/>
   </sheetPr>
@@ -19090,15 +19091,15 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -19109,7 +19110,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -19132,7 +19133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -19155,7 +19156,7 @@
         <v>302179707</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -19178,7 +19179,7 @@
         <v>270146645</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -19201,7 +19202,7 @@
         <v>63754758</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -19224,7 +19225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -19256,7 +19257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr codeName="Tabelle253">
     <tabColor indexed="13"/>
   </sheetPr>
@@ -19266,15 +19267,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -19285,7 +19286,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -19308,7 +19309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -19331,7 +19332,7 @@
         <v>1943189</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -19354,7 +19355,7 @@
         <v>1281709</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -19377,7 +19378,7 @@
         <v>734473</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -19400,7 +19401,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -19432,7 +19433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr codeName="Tabelle256">
     <tabColor indexed="13"/>
   </sheetPr>
@@ -19442,15 +19443,15 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="13.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -19461,7 +19462,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -19484,7 +19485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -19507,7 +19508,7 @@
         <v>2152439535</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -19530,7 +19531,7 @@
         <v>1497686566</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -19553,7 +19554,7 @@
         <v>500416041</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -19576,7 +19577,7 @@
         <v>24918580</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -19608,7 +19609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr codeName="Tabelle254">
     <tabColor indexed="13"/>
   </sheetPr>
@@ -19618,15 +19619,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -19637,7 +19638,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -19660,7 +19661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -19683,7 +19684,7 @@
         <v>153043300</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -19706,7 +19707,7 @@
         <v>14900000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -19729,7 +19730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -19752,7 +19753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -19784,7 +19785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <sheetPr codeName="Tabelle255">
     <tabColor indexed="13"/>
   </sheetPr>
@@ -19794,15 +19795,15 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -19813,7 +19814,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -19836,7 +19837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -19859,7 +19860,7 @@
         <v>13010894</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -19882,7 +19883,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -19905,7 +19906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -19928,7 +19929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -19960,7 +19961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr codeName="Tabelle257">
     <tabColor indexed="13"/>
   </sheetPr>
@@ -19968,15 +19969,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -19987,7 +19988,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -20010,7 +20011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -20033,7 +20034,7 @@
         <v>12134</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -20056,7 +20057,7 @@
         <v>35079</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -20079,7 +20080,7 @@
         <v>5529</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -20102,7 +20103,7 @@
         <v>3527</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -20134,7 +20135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Tabelle201">
     <tabColor indexed="10"/>
   </sheetPr>
@@ -20144,15 +20145,15 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -20163,7 +20164,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -20186,7 +20187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -20209,7 +20210,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -20232,7 +20233,7 @@
         <v>86219</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -20255,7 +20256,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -20278,7 +20279,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -20310,7 +20311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Tabelle202">
     <tabColor indexed="10"/>
   </sheetPr>
@@ -20320,15 +20321,15 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="6.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -20339,7 +20340,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -20362,7 +20363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -20385,7 +20386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -20408,7 +20409,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -20431,7 +20432,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -20454,7 +20455,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -20486,7 +20487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Tabelle203">
     <tabColor indexed="10"/>
   </sheetPr>
@@ -20496,15 +20497,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -20515,7 +20516,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -20538,7 +20539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -20561,7 +20562,7 @@
         <v>1798920</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -20584,7 +20585,7 @@
         <v>3968289</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -20607,7 +20608,7 @@
         <v>1426540</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -20630,7 +20631,7 @@
         <v>1230430</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
